--- a/task1/Notes.xlsx
+++ b/task1/Notes.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>to pay</v>
+        <v>make</v>
       </c>
       <c r="B2" t="str">
         <v>tax</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>additional</v>
+        <v>matter</v>
       </c>
       <c r="B3" t="str">
         <v>task</v>
